--- a/data/trans_camb/P25_1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_1-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,89</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-5,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,54</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>-1,61</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-2,09</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,23</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 12,3</t>
+          <t>-14,92; 17,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 10,95</t>
+          <t>-16,69; 16,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 2,93</t>
+          <t>-14,36; 25,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 6,25</t>
+          <t>-22,26; 7,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 3,87</t>
+          <t>-21,37; 9,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 4,54</t>
+          <t>-18,31; 13,97</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-12,58; 9,06</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-12,37; 9,52</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-9,19; 15,42</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,18%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,25%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-34,98%</t>
+          <t>48,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-17,18%</t>
+          <t>-31,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-18,74%</t>
+          <t>-26,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-14,52%</t>
+          <t>-8,63%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-12,91%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-12,5%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13,78%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,87; 86,2</t>
+          <t>-63,23; 255,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-48,5; 75,98</t>
+          <t>-66,81; 215,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-69,48; 22,91</t>
+          <t>-57,31; 304,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-59,71; 53,74</t>
+          <t>-79,81; 95,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,23; 24,57</t>
+          <t>-78,84; 112,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,29; 29,12</t>
+          <t>-70,57; 134,24</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-55,88; 80,21</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-55,43; 88,21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-43,15; 139,73</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>-0,33</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 2,22</t>
+          <t>-4,96; 3,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 2,29</t>
+          <t>-5,26; 3,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 3,67</t>
+          <t>-3,12; 6,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 5,68</t>
+          <t>-3,88; 3,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 2,04</t>
+          <t>-3,46; 4,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 3,07</t>
+          <t>-2,46; 6,42</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; 2,21</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 2,35</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 4,95</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-18,25%</t>
+          <t>-17,6%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-17,28%</t>
+          <t>-21,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>48,08%</t>
+          <t>-6,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,96%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>61,37%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-12,67%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-9,54%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>44,39%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-62,76; 62,14</t>
+          <t>-74,56; 184,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,52; 64,53</t>
+          <t>-76,25; 172,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,72; 161,36</t>
+          <t>-52,05; 315,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,43; 248,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,57; 65,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,4; 90,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-63,36; 117,28</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-61,88; 130,26</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-34,11; 249,74</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 3,51</t>
+          <t>-3,2; 5,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 4,0</t>
+          <t>-2,91; 5,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 2,17</t>
+          <t>-2,64; 6,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 3,07</t>
+          <t>-2,74; 1,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,36</t>
+          <t>-2,14; 3,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,95</t>
+          <t>-1,74; 4,24</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 2,58</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 3,57</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 4,03</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>27,65%</t>
+          <t>40,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,99%</t>
+          <t>53,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>-17,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>35,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>57,97%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9,58%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>41,06%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>58,82%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-72,76; 332,6</t>
+          <t>-75,51; 836,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-62,88; 381,19</t>
+          <t>-62,09; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-79,23; 220,47</t>
+          <t>-59,62; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-62,16; 288,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-50,89; 160,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,87; 210,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-70,51; 252,51</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-53,54; 363,13</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-55,45; 382,6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 2,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 2,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 1,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 3,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-9,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-16,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-12,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,64; 35,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,22; 36,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-47,5; 33,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,1; 82,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,91; 17,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 36,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 3,41</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,1; 3,39</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 6,45</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-3,69; 1,88</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 2,84</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,47; 5,32</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,51; 1,63</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,2; 2,14</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 4,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>50,41%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-22,6%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-5,45%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>38,7%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-9,48%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-0,66%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>45,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-44,84; 96,57</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-43,85; 90,98</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-17,43; 169,61</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-62,65; 72,74</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-54,31; 112,52</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-31,2; 194,87</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-45,16; 46,0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-39,0; 60,29</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-10,26; 126,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
